--- a/Documents/Projektplan .xlsx
+++ b/Documents/Projektplan .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon FH\Desktop\Documents\Studium\Softwareprojekte\Semester 3 - Softwareprojekt 1\echt\urvent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F20347-5D3F-4C5A-9E9C-4CC1ABB5778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84565067-80B9-4920-9664-DDFC673AEB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Teammitglied</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Formatieren: Ausfüllen mit Farbe</t>
   </si>
   <si>
-    <t>B, C</t>
-  </si>
-  <si>
     <t>Legende</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>Steven</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,46 +209,14 @@
       <alignment vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -546,7 +517,7 @@
   <dimension ref="A2:DF37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +831,7 @@
     </row>
     <row r="3" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>43731</v>
@@ -868,13 +839,13 @@
       <c r="C3" s="2">
         <v>43758</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>43731</v>
@@ -882,13 +853,13 @@
       <c r="C4" s="2">
         <v>43758</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>43755</v>
@@ -896,13 +867,13 @@
       <c r="C5" s="2">
         <v>43759</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>43755</v>
@@ -910,13 +881,13 @@
       <c r="C6" s="2">
         <v>43759</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>43759</v>
@@ -924,13 +895,13 @@
       <c r="C7" s="2">
         <v>43763</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>43759</v>
@@ -938,13 +909,13 @@
       <c r="C8" s="2">
         <v>43763</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>43759</v>
@@ -952,13 +923,13 @@
       <c r="C9" s="2">
         <v>43794</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>43759</v>
@@ -966,13 +937,13 @@
       <c r="C10" s="2">
         <v>43768</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>43759</v>
@@ -980,13 +951,13 @@
       <c r="C11" s="2">
         <v>43768</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>43768</v>
@@ -994,13 +965,13 @@
       <c r="C12" s="2">
         <v>43773</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>43768</v>
@@ -1008,13 +979,13 @@
       <c r="C13" s="2">
         <v>43773</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
+      <c r="D13" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
         <v>43768</v>
@@ -1022,13 +993,13 @@
       <c r="C14" s="2">
         <v>43780</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>43768</v>
@@ -1036,13 +1007,13 @@
       <c r="C15" s="2">
         <v>43780</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>43780</v>
@@ -1050,13 +1021,13 @@
       <c r="C16" s="2">
         <v>43787</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>43780</v>
@@ -1064,13 +1035,13 @@
       <c r="C17" s="2">
         <v>43787</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>43787</v>
@@ -1078,13 +1049,13 @@
       <c r="C18" s="2">
         <v>43794</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
+      <c r="D18" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>43787</v>
@@ -1092,8 +1063,8 @@
       <c r="C19" s="2">
         <v>43794</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,13 +1073,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1120,7 +1091,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1132,7 +1103,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1144,7 +1115,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -1205,17 +1176,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:BM20 E26:BM28">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(E$2&gt;=$B3,E$2&lt;=$C3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:BM24">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(E$2&gt;=$B22,E$2&lt;=$C21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:BM25">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(E$2&gt;=#REF!,E$2&lt;=$C25)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Projektplan .xlsx
+++ b/Documents/Projektplan .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon FH\Desktop\Documents\Studium\Softwareprojekte\Semester 3 - Softwareprojekt 1\echt\urvent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84565067-80B9-4920-9664-DDFC673AEB31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F14796-6C90-4D0E-8197-A5A082603A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="75" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Nick</t>
   </si>
   <si>
-    <t>Hendrik</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>Hendrik Lichtenberg</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A2:DF37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>43758</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>43758</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>43759</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>43763</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>43768</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
